--- a/data/trans_dic/P32A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,64; 5,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,43; 3,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,54; 4,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,31; 12,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,38; 4,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,59; 3,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0,18; 6,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,39; 2,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,62; 4,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,39; 5,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,23</t>
+          <t>0,0; 2,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,28; 1,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,23; 3,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,11; 3,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,24; 2,26</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,46; 2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,61; 5,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>1,05; 3,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,06; 2,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0,29; 3,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,45; 2,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,15; 3,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,85; 2,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,34; 2,26</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>1,0; 4,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,9; 4,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,97; 4,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,08; 2,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,73; 3,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,77; 3,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,84; 3,25</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1284,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>1,03; 7,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>0,0; 5,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,78; 4,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>2,03; 6,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1309,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,9; 10,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>0,85; 8,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,83; 5,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,76; 5,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,56; 4,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,07; 4,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,81; 4,93</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,79; 6,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,33; 3,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,26; 4,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>0,31; 4,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,52; 3,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,75; 2,91</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,66; 1,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,39; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,23; 2,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,1; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,37; 1,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,73; 2,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,89; 2,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,55; 1,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,5; 2,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,29; 2,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,28; 2,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,55%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 12,85</t>
+          <t>0,35; 12,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 6,62</t>
+          <t>0,18; 5,69</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,26</t>
+          <t>0,22; 2,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,14 +951,14 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,87%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,39%</t>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,87</t>
+          <t>0,06; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,67</t>
+          <t>0,29; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,26</t>
+          <t>0,33; 2,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,26</t>
+          <t>0,96; 4,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,48</t>
+          <t>0,09; 2,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,25</t>
+          <t>0,84; 3,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,29</t>
+          <t>2,06; 6,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,01</t>
+          <t>0,83; 4,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,93</t>
+          <t>1,83; 4,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,17 +1356,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1386,32 +1386,32 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,83</t>
+          <t>0; 1,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,32</t>
+          <t>0,61; 5,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,19</t>
+          <t>0,5; 4,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,18</t>
+          <t>1,02; 4,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0; 5,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>0; 3,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,91</t>
+          <t>0,0; 8,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0; 1,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,63</t>
+          <t>0,45; 3,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,04</t>
+          <t>0,4; 3,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,91</t>
+          <t>0,23; 2,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 6,93</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,35</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,73</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 5,58</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 12,61</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 8,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 15,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,1</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 4,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,66; 1,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,92; 3,47</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,39; 2,67</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 2,52</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 2,5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,1; 0,9</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,37; 1,65</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,73; 2,16</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 2,79</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,36</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,55; 1,28</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,5; 2,61</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,29; 2,28</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 2,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 2,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P32A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,41</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,98</t>
+          <t>1,66; 5,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,86</t>
+          <t>0,44; 3,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,85</t>
+          <t>0,54; 4,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,16</t>
+          <t>0,46; 13,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,12</t>
+          <t>1,38; 4,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,34</t>
+          <t>0,53; 3,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,69</t>
+          <t>0,19; 5,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,13</t>
+          <t>0,39; 2,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,5</t>
+          <t>1,58; 4,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,17</t>
+          <t>1,54; 5,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,49</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,0</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,42</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,65</t>
+          <t>0,3; 1,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,32</t>
+          <t>1,22; 3,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,5</t>
+          <t>1,06; 3,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,47</t>
+          <t>0,24; 2,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,75</t>
+          <t>0,48; 2,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,39</t>
+          <t>1,61; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,82</t>
+          <t>0,97; 3,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,83</t>
+          <t>0,06; 2,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,03</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,36</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,49</t>
+          <t>0,29; 3,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,14</t>
+          <t>0,45; 2,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,44</t>
+          <t>1,09; 3,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,74</t>
+          <t>0,85; 2,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,14</t>
+          <t>0,4; 2,43</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,66</t>
+          <t>1,02; 4,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,38</t>
+          <t>0,88; 4,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,17</t>
+          <t>0,97; 4,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,44</t>
+          <t>0,09; 2,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,25</t>
+          <t>0,73; 3,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,08</t>
+          <t>0,76; 2,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,2</t>
+          <t>0,81; 3,08</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,12</t>
+          <t>0,93; 6,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,81</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,31</t>
+          <t>0,78; 4,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,34</t>
+          <t>1,98; 6,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1310,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,0</t>
+          <t>0,9; 10,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,48</t>
+          <t>0,86; 8,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,98</t>
+          <t>0,83; 4,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,19</t>
+          <t>0,71; 5,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,99</t>
+          <t>0,55; 4,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,71</t>
+          <t>1,08; 4,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,94</t>
+          <t>1,95; 4,92</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1430,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,07</t>
+          <t>0,61; 5,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,6</t>
+          <t>0,51; 4,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,64</t>
+          <t>1,02; 4,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,7 +1455,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,7</t>
+          <t>0,0; 7,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,17 +1470,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,77</t>
+          <t>0,44; 3,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,95</t>
+          <t>0,42; 4,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,75</t>
+          <t>0,21; 2,81</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,93</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,35</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,58</t>
+          <t>0,57; 6,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,32 +1595,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,74</t>
+          <t>0,0; 15,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,16</t>
+          <t>0,0; 5,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 11,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,71</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,8</t>
+          <t>0,89; 5,16</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,58</t>
+          <t>0,69; 1,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,47</t>
+          <t>1,86; 3,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,67</t>
+          <t>1,36; 2,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,5</t>
+          <t>1,27; 2,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,9</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,65</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,16</t>
+          <t>0,75; 2,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,36</t>
+          <t>0,61; 2,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,28</t>
+          <t>0,55; 1,23</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,61</t>
+          <t>1,44; 2,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,28</t>
+          <t>1,32; 2,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,22</t>
+          <t>1,15; 2,18</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le ha molestado que le criticasen la forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9219</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3755</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11259</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6783</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6991</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4639; 16696</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1114; 10052</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4582</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1816</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6208</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>937; 8351</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>461; 13369</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6909</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6391; 18909</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2276; 13837</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>508; 14156</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13405</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10457</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5969</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>14298</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12385</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1939; 10567</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7385; 21511</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5619; 18985</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7515</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5599</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4690</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6627</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5541</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2173; 13066</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8304; 23396</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6255; 21484</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>873; 9608</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4778</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12818</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9026</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13757</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10949</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1914; 11262</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6866; 24052</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4202; 15784</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>166; 8404</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6935</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4686</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6678</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>438; 5599</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2822; 14502</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7325; 22942</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5797; 18949</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1719; 10478</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8768</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8229</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7422</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1477</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9795</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10445</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8899</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6353</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3996; 18953</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3423; 16211</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3304; 14700</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5827</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6765</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>162; 5277</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6257</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4428; 20181</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4989; 18236</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4296; 16287</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5368</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5603</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9846</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4094</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2915</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5368</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9725</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12761</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1679; 11223</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11036</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2226; 12776</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5197; 16790</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1007; 12094</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1115; 11305</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1121; 6582</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1811; 12871</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1889; 14889</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4492; 19517</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7764; 19568</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4014</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5708</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1858</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>937; 8126</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>899; 7683</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1923; 9050</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1752</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2119</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5152</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6382</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1851</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>919; 7971</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1018; 9896</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>978; 13172</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5108</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 10623</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1648</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>572; 6196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2083</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5795</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2320</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4996</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 12360</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6975</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1133; 6544</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>20089</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>51661</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>40012</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>27988</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>14096</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>60654</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>55495</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>12904; 30978</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>37804; 69413</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>27273; 54016</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>19920; 38761</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>924; 7924</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>4015; 17596</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>8583; 26333</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6208; 24462</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>15185; 34160</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>44321; 79962</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>41469; 70542</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>29711; 56615</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>